--- a/biology/Biologie cellulaire et moléculaire/Hybridation_in_situ_en_fluorescence/Hybridation_in_situ_en_fluorescence.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hybridation_in_situ_en_fluorescence/Hybridation_in_situ_en_fluorescence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hybridation in situ en fluorescence (FISH, de l'anglais fluorescence in situ hybridization) est une technique de biologie moléculaire d'hybridation in situ qui consiste à analyser des coupes en microscopie et en imagerie moléculaire en recourant à des sondes disposant d'un marqueur fluorescent.
 Le FISH est une technique de cytogénétique permettant de détecter des éléments situés à l'intérieur même de la cellule.
@@ -512,7 +524,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les sondes peuvent être utilisées sur :
@@ -550,7 +564,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Utilisée en médecine en association avec la réalisation d'un caryotype, elle permet par exemple la recherche de microdélétions caractéristiques du syndrome de Williams ou du syndrome de Jacobsen. Elle permet de différencier un syndrome CHARGE d'un syndrome de microdélétion 22q11, tous deux résultant en des problèmes cardiaques. Elle est aussi utilisée dans le domaine de la cancérologie pour l'identification précise de pathologies telles que les lymphomes ou les sarcomes, pour y rechercher des marqueurs d'agressivité, ou encore pour prédire la réponse de certaines tumeurs à des thérapies ciblées.. 
 Utilisée en conjonction avec d'autres techniques de biologie moléculaire (PCR, DGGE...), la technique FISH permet de faire des études de biologie telles l'étude de la biodiversité des espèces (diversité spécifique) du picoplancton photosynthétique.
@@ -583,7 +599,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une variante de la technique s'appelle CARD-FISH (pour catalyzed reporter deposition fluorescent in situ hybridization).
 </t>
